--- a/biology/Zoologie/Bitis_peringueyi/Bitis_peringueyi.xlsx
+++ b/biology/Zoologie/Bitis_peringueyi/Bitis_peringueyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bitis peringueyi, la Vipère du désert de Namibie ou Vipère de Péringuey,  est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bitis peringueyi, la Vipère du désert de Namibie ou Vipère de Péringuey,  est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Namibie et dans le sud de l'Angola[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Namibie et dans le sud de l'Angola.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent atteint 20 ou 25 cm, au maximum 32 centimètres. La tête est courte et plate, avec les yeux en hauteur. Il est orangé, avec des traits et points plus sombres sur le corps. Le dessous est banc-jaune, et la queue est en général plus sombre, parfois noire.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Louis Péringuey.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1888 : On new or little known South African reptiles. Annals and Magazine of Natural History, sér. 6, vol. 2, p. 136-141 (texte intégral).</t>
         </is>
